--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashutosh Deshpande\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\Data Structures and Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1931,8 +1931,8 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
+      <c r="C7" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
